--- a/data/case1/18/P_device_1.xlsx
+++ b/data/case1/18/P_device_1.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.064272446873513384</v>
+        <v>-0.077979173099918461</v>
       </c>
       <c r="B1" s="0">
-        <v>0.064272445799777242</v>
+        <v>0.077979172742905112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.013208266335851619</v>
+        <v>0.068331130614467439</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.013208267427054408</v>
+        <v>-0.068331130973545276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0011362013344068799</v>
+        <v>0.025781416293584228</v>
       </c>
       <c r="B3" s="0">
-        <v>0.001136200106848461</v>
+        <v>-0.025781416680986914</v>
       </c>
     </row>
     <row r="4">
